--- a/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_32_.xlsx
+++ b/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_32_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:485</t>
+          <t>Total number of containers:485</t>
         </is>
       </c>
     </row>
